--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ui组件" sheetId="2" r:id="rId2"/>
     <sheet name="redux配置DvaJS" sheetId="3" r:id="rId3"/>
     <sheet name="路由配置UmiJS" sheetId="4" r:id="rId4"/>
+    <sheet name="项目2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>在React中使用react-router-dom路由</t>
   </si>
@@ -25,12 +26,6 @@
     <t>https://blog.csdn.net/weixin_57163112/article/details/119996671</t>
   </si>
   <si>
-    <t>react官网</t>
-  </si>
-  <si>
-    <t>https://react.docschina.org/</t>
-  </si>
-  <si>
     <t>路由配置</t>
   </si>
   <si>
@@ -55,10 +50,112 @@
     <t>https://www.jb51.net/article/257250.htm</t>
   </si>
   <si>
-    <t>react-native</t>
+    <t>React Native 中文网？？</t>
   </si>
   <si>
     <t>https://www.react-native.cn/</t>
+  </si>
+  <si>
+    <t>React中文官网</t>
+  </si>
+  <si>
+    <t>https://zh-hans.reactjs.org/docs/handling-events.html</t>
+  </si>
+  <si>
+    <t>https://react.docschina.org/docs/hello-world.html</t>
+  </si>
+  <si>
+    <t>菜鸟教程</t>
+  </si>
+  <si>
+    <t>https://www.runoob.com/react/react-tutorial.html</t>
+  </si>
+  <si>
+    <t>React项目全家桶</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/104771562</t>
+  </si>
+  <si>
+    <t>从零搭建React项目全家桶</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/591567093</t>
+  </si>
+  <si>
+    <t>react-router-dom 官网</t>
+  </si>
+  <si>
+    <t>https://reactrouter.com/en/main</t>
+  </si>
+  <si>
+    <t>《react视频教程》</t>
+  </si>
+  <si>
+    <t>https://www.php.cn/course/list/21.html</t>
+  </si>
+  <si>
+    <t>搜索“React Developer Tools”并安装</t>
+  </si>
+  <si>
+    <t>谷歌》右上角...》扩展程序》打开Chrome网上应用店</t>
+  </si>
+  <si>
+    <t>创建React+umi+dva+antd项目</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_32599479/article/details/103588834</t>
+  </si>
+  <si>
+    <t>全局安装umi</t>
+  </si>
+  <si>
+    <t>npm install umi -g</t>
+  </si>
+  <si>
+    <t>查看umi版本</t>
+  </si>
+  <si>
+    <t>umi -v</t>
+  </si>
+  <si>
+    <t>新建项目文件夹</t>
+  </si>
+  <si>
+    <t>mkdir umi_demo</t>
+  </si>
+  <si>
+    <t>cd umi_demo</t>
+  </si>
+  <si>
+    <t>umi搭建项目</t>
+  </si>
+  <si>
+    <t>npm create umi</t>
+  </si>
+  <si>
+    <t>从零开始的dva框架学习</t>
+  </si>
+  <si>
+    <t>https://www.likecs.com/show-204439556.html#sc=600</t>
+  </si>
+  <si>
+    <t>全局安装dva</t>
+  </si>
+  <si>
+    <t>npm install dva-cli -g</t>
+  </si>
+  <si>
+    <t>查看dva版本</t>
+  </si>
+  <si>
+    <t>dva -v</t>
+  </si>
+  <si>
+    <t>构建项目</t>
+  </si>
+  <si>
+    <t>dva new dva-quickstart</t>
   </si>
 </sst>
 </file>
@@ -82,6 +179,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,14 +216,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,31 +641,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,13 +686,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -607,10 +704,10 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -625,60 +722,66 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1045,7 +1148,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1053,15 +1156,15 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1069,7 +1172,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1077,35 +1180,98 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/weixin_57163112/article/details/119996671"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://react.docschina.org/"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://react-guide.github.io/react-router-cn/docs/guides/basics/RouteConfiguration.html"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://github.com/yezihaohao/react-admin"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://www.jb51.net/article/257250.htm"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://github.com/chenjun1127/react-antd-admin.git"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://www.react-native.cn/"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://react-guide.github.io/react-router-cn/docs/guides/basics/RouteConfiguration.html"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/yezihaohao/react-admin"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.jb51.net/article/257250.htm"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://github.com/chenjun1127/react-antd-admin.git"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://www.react-native.cn/"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://zh-hans.reactjs.org/docs/handling-events.html"/>
+    <hyperlink ref="B13" r:id="rId8" display="https://react.docschina.org/docs/hello-world.html"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://www.runoob.com/react/react-tutorial.html"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://zhuanlan.zhihu.com/p/104771562" tooltip="https://zhuanlan.zhihu.com/p/104771562"/>
+    <hyperlink ref="B20" r:id="rId11" display="https://reactrouter.com/en/main" tooltip="https://reactrouter.com/en/main"/>
+    <hyperlink ref="B22" r:id="rId12" display="https://www.php.cn/course/list/21.html"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://zhuanlan.zhihu.com/p/591567093"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1161,4 +1327,106 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="140.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/qq_32599479/article/details/103588834" tooltip="https://blog.csdn.net/qq_32599479/article/details/103588834"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://www.likecs.com/show-204439556.html#sc=600"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>在React中使用react-router-dom路由</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>谷歌》右上角...》扩展程序》打开Chrome网上应用店</t>
+  </si>
+  <si>
+    <t>Ant-design</t>
+  </si>
+  <si>
+    <t>https://ant-design.gitee.io</t>
+  </si>
+  <si>
+    <t>redux配置DvaJS</t>
+  </si>
+  <si>
+    <t>https://dvajs.com/</t>
+  </si>
+  <si>
+    <t>路由配置UmiJS</t>
+  </si>
+  <si>
+    <t>https://umijs.org/zh-CN/docs</t>
   </si>
   <si>
     <t>创建React+umi+dva+antd项目</t>
@@ -168,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +208,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,16 +666,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,10 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,98 +702,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +807,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,7 +1163,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1207,7 +1235,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1231,7 +1259,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1282,14 +1310,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://ant-design.gitee.io"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1299,14 +1343,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://dvajs.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1316,14 +1376,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://umijs.org/zh-CN/docs"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1334,7 +1410,7 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1346,79 +1422,79 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1162,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1295,7 +1295,7 @@
     <hyperlink ref="B10" r:id="rId6" display="https://www.react-native.cn/"/>
     <hyperlink ref="B12" r:id="rId7" display="https://zh-hans.reactjs.org/docs/handling-events.html"/>
     <hyperlink ref="B13" r:id="rId8" display="https://react.docschina.org/docs/hello-world.html"/>
-    <hyperlink ref="B15" r:id="rId9" display="https://www.runoob.com/react/react-tutorial.html"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://www.runoob.com/react/react-tutorial.html" tooltip="https://www.runoob.com/react/react-tutorial.html"/>
     <hyperlink ref="B17" r:id="rId10" display="https://zhuanlan.zhihu.com/p/104771562" tooltip="https://zhuanlan.zhihu.com/p/104771562"/>
     <hyperlink ref="B20" r:id="rId11" display="https://reactrouter.com/en/main" tooltip="https://reactrouter.com/en/main"/>
     <hyperlink ref="B22" r:id="rId12" display="https://www.php.cn/course/list/21.html"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1345,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>在React中使用react-router-dom路由</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>https://dvajs.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/xuke353/AdmBoots-Client.git</t>
+  </si>
+  <si>
+    <t>https://github.com/while-it/react-antd-webpack.git</t>
   </si>
   <si>
     <t>路由配置UmiJS</t>
@@ -1162,7 +1168,7 @@
   <sheetPr/>
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1343,13 +1349,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
@@ -1363,9 +1369,21 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://dvajs.com/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://dvajs.com/" tooltip="https://dvajs.com/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://github.com/xuke353/AdmBoots-Client.git" tooltip="https://github.com/xuke353/AdmBoots-Client.git"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://github.com/while-it/react-antd-webpack.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1379,7 +1397,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1390,15 +1408,15 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://umijs.org/zh-CN/docs"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://umijs.org/zh-CN/docs" tooltip="https://umijs.org/zh-CN/docs"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1410,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1422,79 +1440,79 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>在React中使用react-router-dom路由</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>https://umijs.org/zh-CN/docs</t>
+  </si>
+  <si>
+    <t>umi</t>
+  </si>
+  <si>
+    <t>react + react-router + webpack + axios</t>
+  </si>
+  <si>
+    <t>umiMax</t>
+  </si>
+  <si>
+    <t>umi + antd + 权限 + dva</t>
+  </si>
+  <si>
+    <t>antd pro</t>
+  </si>
+  <si>
+    <t>umiMax + antd Pro Comopent</t>
   </si>
   <si>
     <t>创建React+umi+dva+antd项目</t>
@@ -1394,13 +1412,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
@@ -1410,8 +1428,32 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1470,7 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1440,79 +1482,79 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -4,21 +4,155 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ui组件" sheetId="2" r:id="rId2"/>
-    <sheet name="redux配置DvaJS" sheetId="3" r:id="rId3"/>
-    <sheet name="路由配置UmiJS" sheetId="4" r:id="rId4"/>
-    <sheet name="项目2" sheetId="5" r:id="rId5"/>
+    <sheet name="常用链接" sheetId="6" r:id="rId1"/>
+    <sheet name="文章链接" sheetId="1" r:id="rId2"/>
+    <sheet name="DvaJS" sheetId="3" r:id="rId3"/>
+    <sheet name="UmiJS" sheetId="4" r:id="rId4"/>
+    <sheet name="区别" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+  <si>
+    <r>
+      <t>React中文官网--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未授权，打不开</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doc.react-china.org</t>
+  </si>
+  <si>
+    <t>React官网</t>
+  </si>
+  <si>
+    <t>https://zh-hans.reactjs.org/docs/handling-events.html</t>
+  </si>
+  <si>
+    <t>https://react.docschina.org/docs/hello-world.html</t>
+  </si>
+  <si>
+    <t>React-router</t>
+  </si>
+  <si>
+    <t>https://react-guide.github.io/react-router-cn</t>
+  </si>
+  <si>
+    <t>Redux 中文官网</t>
+  </si>
+  <si>
+    <t>http://cn.redux.js.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Redux-order（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redux中间件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/Hzy0913/redux-order</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>https://webpack.docschina.org/concepts</t>
+  </si>
+  <si>
+    <t>react-redux官网</t>
+  </si>
+  <si>
+    <t>https://react-redux.js.org/api/connect</t>
+  </si>
+  <si>
+    <t>react-router-dom 官网</t>
+  </si>
+  <si>
+    <t>https://reactrouter.com/en/main</t>
+  </si>
+  <si>
+    <r>
+      <t>React Native 中文官网--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APP开发</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.react-native.cn/</t>
+  </si>
+  <si>
+    <t>ui组件</t>
+  </si>
+  <si>
+    <r>
+      <t>Ant-design(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记得切换版本，看package.json里的antd版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ant-design.gitee.io</t>
+  </si>
   <si>
     <t>在React中使用react-router-dom路由</t>
   </si>
@@ -50,21 +184,6 @@
     <t>https://www.jb51.net/article/257250.htm</t>
   </si>
   <si>
-    <t>React Native 中文网？？</t>
-  </si>
-  <si>
-    <t>https://www.react-native.cn/</t>
-  </si>
-  <si>
-    <t>React中文官网</t>
-  </si>
-  <si>
-    <t>https://zh-hans.reactjs.org/docs/handling-events.html</t>
-  </si>
-  <si>
-    <t>https://react.docschina.org/docs/hello-world.html</t>
-  </si>
-  <si>
     <t>菜鸟教程</t>
   </si>
   <si>
@@ -83,12 +202,6 @@
     <t>https://zhuanlan.zhihu.com/p/591567093</t>
   </si>
   <si>
-    <t>react-router-dom 官网</t>
-  </si>
-  <si>
-    <t>https://reactrouter.com/en/main</t>
-  </si>
-  <si>
     <t>《react视频教程》</t>
   </si>
   <si>
@@ -98,16 +211,29 @@
     <t>搜索“React Developer Tools”并安装</t>
   </si>
   <si>
-    <t>谷歌》右上角...》扩展程序》打开Chrome网上应用店</t>
-  </si>
-  <si>
-    <t>Ant-design</t>
-  </si>
-  <si>
-    <t>https://ant-design.gitee.io</t>
-  </si>
-  <si>
-    <t>redux配置DvaJS</t>
+    <t>谷歌》右上角...》扩展程序》打开Chrome网上应用店
+安装失败，升级谷歌版本就好啦</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <r>
+      <t>dva是由阿里开发的轻量级框架，整合了react、react-router、redux、redux-saga、fetch，将使用react技术栈的开发过程进行优化，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尤其是针对redux那块</t>
+    </r>
+  </si>
+  <si>
+    <t>DvaJS官网</t>
   </si>
   <si>
     <t>https://dvajs.com/</t>
@@ -119,12 +245,30 @@
     <t>https://github.com/while-it/react-antd-webpack.git</t>
   </si>
   <si>
-    <t>路由配置UmiJS</t>
+    <r>
+      <t>Umi（乌米） 是由蚂蚁集团开发的可扩展的企业级前端应用框架。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整合了路由配置、redux变model</t>
+    </r>
+  </si>
+  <si>
+    <t>UmiJS官网</t>
   </si>
   <si>
     <t>https://umijs.org/zh-CN/docs</t>
   </si>
   <si>
+    <t>三种类型</t>
+  </si>
+  <si>
     <t>umi</t>
   </si>
   <si>
@@ -143,61 +287,10 @@
     <t>umiMax + antd Pro Comopent</t>
   </si>
   <si>
-    <t>创建React+umi+dva+antd项目</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_32599479/article/details/103588834</t>
-  </si>
-  <si>
-    <t>全局安装umi</t>
-  </si>
-  <si>
-    <t>npm install umi -g</t>
-  </si>
-  <si>
-    <t>查看umi版本</t>
-  </si>
-  <si>
-    <t>umi -v</t>
-  </si>
-  <si>
-    <t>新建项目文件夹</t>
-  </si>
-  <si>
-    <t>mkdir umi_demo</t>
-  </si>
-  <si>
-    <t>cd umi_demo</t>
-  </si>
-  <si>
-    <t>umi搭建项目</t>
-  </si>
-  <si>
-    <t>npm create umi</t>
-  </si>
-  <si>
-    <t>从零开始的dva框架学习</t>
-  </si>
-  <si>
-    <t>https://www.likecs.com/show-204439556.html#sc=600</t>
-  </si>
-  <si>
-    <t>全局安装dva</t>
-  </si>
-  <si>
-    <t>npm install dva-cli -g</t>
-  </si>
-  <si>
-    <t>查看dva版本</t>
-  </si>
-  <si>
-    <t>dva -v</t>
-  </si>
-  <si>
-    <t>构建项目</t>
-  </si>
-  <si>
-    <t>dva new dva-quickstart</t>
+    <t>react知识点之Component和PureComponent深度解析</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_28483283/article/details/108152301</t>
   </si>
 </sst>
 </file>
@@ -210,7 +303,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,17 +314,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +478,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,12 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,12 +669,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -678,10 +813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,34 +825,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,112 +861,139 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,24 +1343,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="120.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1209,124 +1376,103 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" ht="27" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/weixin_57163112/article/details/119996671"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://react-guide.github.io/react-router-cn/docs/guides/basics/RouteConfiguration.html"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://github.com/yezihaohao/react-admin"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://www.jb51.net/article/257250.htm"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://github.com/chenjun1127/react-antd-admin.git"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://www.react-native.cn/"/>
-    <hyperlink ref="B12" r:id="rId7" display="https://zh-hans.reactjs.org/docs/handling-events.html"/>
-    <hyperlink ref="B13" r:id="rId8" display="https://react.docschina.org/docs/hello-world.html"/>
-    <hyperlink ref="B15" r:id="rId9" display="https://www.runoob.com/react/react-tutorial.html" tooltip="https://www.runoob.com/react/react-tutorial.html"/>
-    <hyperlink ref="B17" r:id="rId10" display="https://zhuanlan.zhihu.com/p/104771562" tooltip="https://zhuanlan.zhihu.com/p/104771562"/>
-    <hyperlink ref="B20" r:id="rId11" display="https://reactrouter.com/en/main" tooltip="https://reactrouter.com/en/main"/>
-    <hyperlink ref="B22" r:id="rId12" display="https://www.php.cn/course/list/21.html"/>
-    <hyperlink ref="B18" r:id="rId13" display="https://zhuanlan.zhihu.com/p/591567093"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://react-guide.github.io/react-router-cn"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://doc.react-china.org"/>
+    <hyperlink ref="B7" r:id="rId3" display="http://cn.redux.js.org" tooltip="http://cn.redux.js.org"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://github.com/Hzy0913/redux-order"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://webpack.docschina.org/concepts"/>
+    <hyperlink ref="B3" r:id="rId6" display="https://zh-hans.reactjs.org/docs/handling-events.html"/>
+    <hyperlink ref="B4" r:id="rId7" display="https://react.docschina.org/docs/hello-world.html"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://reactrouter.com/en/main"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://react-redux.js.org/api/connect"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://ant-design.gitee.io"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.react-native.cn/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1334,29 +1480,109 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ant-design.gitee.io"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/weixin_57163112/article/details/119996671"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://react-guide.github.io/react-router-cn/docs/guides/basics/RouteConfiguration.html"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/yezihaohao/react-admin"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.jb51.net/article/257250.htm"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://github.com/chenjun1127/react-antd-admin.git"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://www.runoob.com/react/react-tutorial.html" tooltip="https://www.runoob.com/react/react-tutorial.html"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://zhuanlan.zhihu.com/p/104771562" tooltip="https://zhuanlan.zhihu.com/p/104771562"/>
+    <hyperlink ref="B18" r:id="rId8" display="https://www.php.cn/course/list/21.html"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://zhuanlan.zhihu.com/p/591567093"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1367,34 +1593,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="27" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1412,51 +1646,71 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://umijs.org/zh-CN/docs" tooltip="https://umijs.org/zh-CN/docs"/>
   </hyperlinks>
@@ -1468,99 +1722,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="140.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="120.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="2" ht="27" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/qq_32599479/article/details/103588834" tooltip="https://blog.csdn.net/qq_32599479/article/details/103588834"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://www.likecs.com/show-204439556.html#sc=600"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/qq_28483283/article/details/108152301"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/react/study.xlsx
+++ b/react/study.xlsx
@@ -18,9 +18,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React中文官网--</t>
     </r>
     <r>
@@ -60,6 +67,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Redux-order（</t>
     </r>
     <r>
@@ -106,6 +120,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React Native 中文官网--</t>
     </r>
     <r>
@@ -123,10 +144,38 @@
     <t>https://www.react-native.cn/</t>
   </si>
   <si>
+    <t>Next.js中文网</t>
+  </si>
+  <si>
+    <t>https://www.nextjs.cn/docs/getting-started</t>
+  </si>
+  <si>
+    <t>ahooks</t>
+  </si>
+  <si>
+    <t>https://ahooks.gitee.io/zh-CN/guide</t>
+  </si>
+  <si>
+    <t>Lodash 中文文档</t>
+  </si>
+  <si>
+    <t>https://www.lodashjs.com/docs/lodash/</t>
+  </si>
+  <si>
+    <t>http://lodash.net/</t>
+  </si>
+  <si>
     <t>ui组件</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Ant-design(</t>
     </r>
     <r>
@@ -219,6 +268,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dva是由阿里开发的轻量级框架，整合了react、react-router、redux、redux-saga、fetch，将使用react技术栈的开发过程进行优化，</t>
     </r>
     <r>
@@ -246,6 +302,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Umi（乌米） 是由蚂蚁集团开发的可扩展的企业级前端应用框架。</t>
     </r>
     <r>
@@ -955,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,17 +1037,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1343,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1356,7 +1413,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1399,7 +1456,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1441,23 +1498,78 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+    </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://react-guide.github.io/react-router-cn"/>
@@ -1469,8 +1581,12 @@
     <hyperlink ref="B4" r:id="rId7" display="https://react.docschina.org/docs/hello-world.html"/>
     <hyperlink ref="B12" r:id="rId8" display="https://reactrouter.com/en/main"/>
     <hyperlink ref="B10" r:id="rId9" display="https://react-redux.js.org/api/connect"/>
-    <hyperlink ref="B17" r:id="rId10" display="https://ant-design.gitee.io"/>
+    <hyperlink ref="B27" r:id="rId10" display="https://ant-design.gitee.io"/>
     <hyperlink ref="B14" r:id="rId11" display="https://www.react-native.cn/"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://www.nextjs.cn/docs/getting-started"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://ahooks.gitee.io/zh-CN/guide"/>
+    <hyperlink ref="B20" r:id="rId14" display="https://www.lodashjs.com/docs/lodash/" tooltip="https://www.lodashjs.com/docs/lodash/"/>
+    <hyperlink ref="B21" r:id="rId15" display="http://lodash.net/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1494,82 +1610,82 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>32</v>
+      <c r="A12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:2">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1607,28 +1723,28 @@
   <sheetData>
     <row r="1" ht="27" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1660,18 +1776,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1679,32 +1795,32 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1736,10 +1852,10 @@
   <sheetData>
     <row r="2" ht="27" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
